--- a/Mi primer Excel.xlsx
+++ b/Mi primer Excel.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juans\OneDrive\Escritorio\Platzi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CCE69D-FB66-40D8-9DDC-D7B4B06B0EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF6852A-9BE8-41E0-9E78-70132466398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4984995E-A29E-4F3B-A8E9-0B6562FC4525}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Ventas" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Vista para impresión" guid="{BCFC9ACA-0DA4-40CC-B384-1B6FFB461E1B}" xWindow="953" windowWidth="974" windowHeight="1039" activeSheetId="3"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +40,57 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Platzi</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Empresa 1</t>
+  </si>
+  <si>
+    <t>Empresa 2</t>
+  </si>
+  <si>
+    <t>Empresa 3</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Monto vendido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +98,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF99FF"/>
+      <name val="Chiller"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Amasis MT Pro"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Brush Script MT"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Curlz MT"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,17 +167,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -402,12 +528,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85BDCC0-3E2A-4791-9CBC-D46253FFE3D3}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>555555</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9">
+        <v>555555</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>777777</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5">
+        <v>777777</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>999999</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>888888</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>888888</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>555555</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>777777</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>999999</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
+        <v>555555</v>
+      </c>
+      <c r="K11" s="5">
+        <v>777777</v>
+      </c>
+      <c r="L11" s="6">
+        <v>999999</v>
+      </c>
+      <c r="M11" s="7">
+        <v>888888</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{BCFC9ACA-0DA4-40CC-B384-1B6FFB461E1B}" scale="160" showPageBreaks="1" view="pageBreakPreview">
+      <selection activeCell="D9" sqref="D9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="77" orientation="landscape" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCD7110-E9AE-49BD-9A89-BDC13B9C8742}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>44562</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{BCFC9ACA-0DA4-40CC-B384-1B6FFB461E1B}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792ACD6-877A-474F-80DD-6C22E52DC7B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{BCFC9ACA-0DA4-40CC-B384-1B6FFB461E1B}" showPageBreaks="1" view="pageLayout">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <headerFooter>
+        <oddHeader>&amp;CVentas Mensuales</oddHeader>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;CVentas Mensuales</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Mi primer Excel.xlsx
+++ b/Mi primer Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juans\OneDrive\Escritorio\Platzi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF6852A-9BE8-41E0-9E78-70132466398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA68467-7F73-4337-9802-12B7871FB303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4984995E-A29E-4F3B-A8E9-0B6562FC4525}"/>
   </bookViews>
@@ -40,21 +40,60 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CEBC27CD-B9A6-4395-8AE1-B8527A877613}</author>
+    <author>tc={C679515A-1B4F-488E-BE17-E02A2BA7BC05}</author>
+    <author>tc={69E16F1C-49B8-4E10-9E5E-EC3BB4FDA857}</author>
+    <author>tc={EA16A05F-15DB-4A70-8D67-9342DF33BC19}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CEBC27CD-B9A6-4395-8AE1-B8527A877613}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Cambiar color</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{C679515A-1B4F-488E-BE17-E02A2BA7BC05}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    La mejor empresa del mundo!!!</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="2" shapeId="0" xr:uid="{69E16F1C-49B8-4E10-9E5E-EC3BB4FDA857}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Ya no es nuestro cliente</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="3" shapeId="0" xr:uid="{EA16A05F-15DB-4A70-8D67-9342DF33BC19}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Laura cambió de teléfono</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
   <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
     <t>Laura</t>
   </si>
   <si>
     <t>Luis</t>
   </si>
   <si>
-    <t>Telefono</t>
-  </si>
-  <si>
     <t>Platzi</t>
   </si>
   <si>
@@ -80,6 +119,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ana </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Benjamín</t>
   </si>
 </sst>
 </file>
@@ -88,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +188,12 @@
       <name val="Curlz MT"/>
       <family val="5"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -171,11 +222,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -209,6 +259,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Sebas Bustos" id="{865E748B-BE60-44FE-84CD-84752CC32763}" userId="Sebas Bustos" providerId="None"/>
+  <person displayName="JUAN SEBASTIAN BUSTOS RUIZ" id="{CDFCDA2E-FC07-4F88-95DC-6C253A0D8782}" userId="S::juansbustos@ucundinamarca.edu.co::86cde44e-f9a3-4ac0-8bec-d208c6639716" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,227 +583,240 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" personId="{865E748B-BE60-44FE-84CD-84752CC32763}" id="{CEBC27CD-B9A6-4395-8AE1-B8527A877613}">
+    <text>Cambiar color</text>
+  </threadedComment>
+  <threadedComment ref="C3" personId="{865E748B-BE60-44FE-84CD-84752CC32763}" id="{C679515A-1B4F-488E-BE17-E02A2BA7BC05}">
+    <text>La mejor empresa del mundo!!!</text>
+  </threadedComment>
+  <threadedComment ref="B4" dT="2024-06-12T15:17:35.09" personId="{CDFCDA2E-FC07-4F88-95DC-6C253A0D8782}" id="{69E16F1C-49B8-4E10-9E5E-EC3BB4FDA857}">
+    <text>Ya no es nuestro cliente</text>
+  </threadedComment>
+  <threadedComment ref="D5" dT="2024-06-12T15:18:36.29" personId="{CDFCDA2E-FC07-4F88-95DC-6C253A0D8782}" id="{EA16A05F-15DB-4A70-8D67-9342DF33BC19}">
+    <text>Laura cambió de teléfono</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85BDCC0-3E2A-4791-9CBC-D46253FFE3D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85BDCC0-3E2A-4791-9CBC-D46253FFE3D3}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M12"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
     <row r="2" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>555555</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>555555</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>777777</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>777777</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D5" s="5">
+        <v>999999</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9">
-        <v>555555</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9">
-        <v>555555</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="H5" s="5">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5">
-        <v>777777</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="D6" s="6">
+        <v>888888</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5">
-        <v>777777</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6">
-        <v>999999</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="6">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7">
-        <v>888888</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>888888</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>555555</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>777777</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>999999</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="I11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="8">
         <v>555555</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>777777</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>999999</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>888888</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>888888</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatRows="0" sort="0"/>
   <customSheetViews>
     <customSheetView guid="{BCFC9ACA-0DA4-40CC-B384-1B6FFB461E1B}" scale="160" showPageBreaks="1" view="pageBreakPreview">
       <selection activeCell="D9" sqref="D9"/>
@@ -757,6 +827,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="77" orientation="landscape" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -777,17 +848,17 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>44562</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1200</v>
       </c>
     </row>
@@ -806,9 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792ACD6-877A-474F-80DD-6C22E52DC7B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
